--- a/Excel/Stetson/2022.02.08/25.02.2022 STETSON — загрузка.xlsx
+++ b/Excel/Stetson/2022.02.08/25.02.2022 STETSON — загрузка.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC591E7A-43D2-4F2C-AEAE-138CE049F680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F449576E-64EE-4E11-B5BD-6C6493B26862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE5877FD-B9A6-4A2F-A346-9483678954AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6DB72AB-BE88-4F7B-87DE-F28F56C0E962}"/>
   </bookViews>
   <sheets>
     <sheet name="Загрузка" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>general</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E7B40DA3-6105-4B2D-8A82-AB81B6D77BE3}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2472006A-09B1-49F4-A621-19E15D75065D}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="435">
   <si>
     <t>Артикул</t>
   </si>
@@ -152,7 +152,7 @@
     <t>56% шелк - 44% шерсть / Подклад: 50% вискоза - 50% полиэстер</t>
   </si>
   <si>
-    <t>текстиль, ткань</t>
+    <t>шелковые</t>
   </si>
   <si>
     <t>Унисекс</t>
@@ -194,6 +194,9 @@
     <t>68% шерсть - 32% шелк / Подклад: 50% вискоза - 50% полиэстер</t>
   </si>
   <si>
+    <t>шерстяные</t>
+  </si>
+  <si>
     <t>Кепка STETSON арт. 6840407 HATTERAS VIRGIN WOOL SILK (коричневый)</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
     <t>100% лен / Подклад: 51% полиэстер - 49% вискоза</t>
   </si>
   <si>
+    <t>льняные</t>
+  </si>
+  <si>
     <t>Кепка STETSON арт. 6813103 8-PANEL CAP LINEN (коричневый)</t>
   </si>
   <si>
@@ -284,6 +290,9 @@
     <t>100% хлопок / Подклад: 68% хлопок - 32% полиэстер</t>
   </si>
   <si>
+    <t>хлопковые</t>
+  </si>
+  <si>
     <t>Кепка STETSON арт. 6611130 TEXAS DENIM (темно-синий)</t>
   </si>
   <si>
@@ -572,7 +581,7 @@
     <t>100% вискоза / Подклад: 100% хлопок</t>
   </si>
   <si>
-    <t>плетёный</t>
+    <t>соломенные</t>
   </si>
   <si>
     <t>Панама STETSON арт. 2928501 PITH HELMET (бежевый)</t>
@@ -1073,7 +1082,7 @@
     <t>100% натуральная кожа / Подклад: 100% хлопок</t>
   </si>
   <si>
-    <t>кожа</t>
+    <t>кожаные</t>
   </si>
   <si>
     <t>Шляпа STETSON арт. 1187101 PLAYER PIGSKIN (темно-коричневый)</t>
@@ -1366,6 +1375,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1374,6 +1385,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1396,12 +1413,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1483,25 +1494,25 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 8" xfId="1" xr:uid="{F79E9222-9985-4BF6-BEC2-6481A13A7082}"/>
-    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{158815CE-D268-4D91-B636-0461BB7B24FB}"/>
+    <cellStyle name="Обычный 8" xfId="1" xr:uid="{9C01D06D-DBB6-4605-B753-030A728A4CAF}"/>
+    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{D0F56C11-843B-4426-AC9A-30E083471591}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1818,14 +1829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3BCBE7-E438-42D4-A756-FF5C8B3F930F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E6CC40-2D13-4FA8-B6F3-8723394605F6}">
   <sheetPr codeName="Лист28">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:V128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AM121" sqref="AM121:AM127"/>
     </sheetView>
   </sheetViews>
@@ -2092,7 +2103,7 @@
         <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -2116,16 +2127,16 @@
         <v>35</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" t="s">
         <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2160,7 +2171,7 @@
         <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -2184,24 +2195,24 @@
         <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U5" t="s">
         <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -2213,7 +2224,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
@@ -2225,10 +2236,10 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -2252,24 +2263,24 @@
         <v>35</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
         <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -2281,7 +2292,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -2293,10 +2304,10 @@
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -2320,24 +2331,24 @@
         <v>35</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U7" t="s">
         <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -2349,7 +2360,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -2361,10 +2372,10 @@
         <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -2388,24 +2399,24 @@
         <v>35</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
         <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -2417,7 +2428,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
@@ -2429,16 +2440,16 @@
         <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N9">
         <v>2365.69</v>
@@ -2456,24 +2467,24 @@
         <v>35</v>
       </c>
       <c r="S9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U9" t="s">
         <v>38</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -2485,7 +2496,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
@@ -2497,16 +2508,16 @@
         <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N10">
         <v>2365.69</v>
@@ -2524,24 +2535,24 @@
         <v>35</v>
       </c>
       <c r="S10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
         <v>38</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -2553,7 +2564,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -2565,16 +2576,16 @@
         <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N11">
         <v>2365.69</v>
@@ -2592,24 +2603,24 @@
         <v>35</v>
       </c>
       <c r="S11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U11" t="s">
         <v>38</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -2621,7 +2632,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -2633,16 +2644,16 @@
         <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>2365.69</v>
@@ -2660,36 +2671,36 @@
         <v>35</v>
       </c>
       <c r="S12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U12" t="s">
         <v>38</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
@@ -2698,19 +2709,19 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1495.37</v>
@@ -2728,36 +2739,36 @@
         <v>35</v>
       </c>
       <c r="S13" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s">
         <v>68</v>
       </c>
-      <c r="T13" t="s">
-        <v>69</v>
-      </c>
-      <c r="U13" t="s">
-        <v>66</v>
-      </c>
       <c r="V13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
@@ -2766,19 +2777,19 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>1495.37</v>
@@ -2796,24 +2807,24 @@
         <v>35</v>
       </c>
       <c r="S14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s">
         <v>68</v>
       </c>
-      <c r="T14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" t="s">
-        <v>66</v>
-      </c>
       <c r="V14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -2834,19 +2845,19 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N15">
         <v>1811.85</v>
@@ -2864,24 +2875,24 @@
         <v>35</v>
       </c>
       <c r="S15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s">
         <v>38</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -2902,19 +2913,19 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N16">
         <v>1811.85</v>
@@ -2932,24 +2943,24 @@
         <v>35</v>
       </c>
       <c r="S16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s">
         <v>38</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -2970,19 +2981,19 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N17">
         <v>1811.85</v>
@@ -3000,24 +3011,24 @@
         <v>35</v>
       </c>
       <c r="S17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s">
         <v>38</v>
       </c>
       <c r="V17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -3038,19 +3049,19 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>1811.85</v>
@@ -3068,30 +3079,30 @@
         <v>35</v>
       </c>
       <c r="S18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s">
         <v>38</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
@@ -3106,19 +3117,19 @@
         <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N19">
         <v>1178.8900000000001</v>
@@ -3127,7 +3138,7 @@
         <v>34</v>
       </c>
       <c r="P19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -3136,30 +3147,30 @@
         <v>35</v>
       </c>
       <c r="S19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -3177,16 +3188,16 @@
         <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>1495.37</v>
@@ -3195,7 +3206,7 @@
         <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q20">
         <v>40</v>
@@ -3204,30 +3215,30 @@
         <v>35</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="U20" t="s">
         <v>43</v>
       </c>
       <c r="V20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -3242,19 +3253,19 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N21">
         <v>1178.8900000000001</v>
@@ -3263,7 +3274,7 @@
         <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q21">
         <v>115</v>
@@ -3272,30 +3283,30 @@
         <v>35</v>
       </c>
       <c r="S21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U21" t="s">
         <v>38</v>
       </c>
       <c r="V21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -3310,19 +3321,19 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N22">
         <v>1178.8900000000001</v>
@@ -3331,7 +3342,7 @@
         <v>34</v>
       </c>
       <c r="P22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q22">
         <v>115</v>
@@ -3340,30 +3351,30 @@
         <v>35</v>
       </c>
       <c r="S22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="T22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -3378,19 +3389,19 @@
         <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N23">
         <v>1178.8900000000001</v>
@@ -3399,7 +3410,7 @@
         <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q23">
         <v>150</v>
@@ -3408,30 +3419,30 @@
         <v>35</v>
       </c>
       <c r="S23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U23" t="s">
         <v>38</v>
       </c>
       <c r="V23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -3446,13 +3457,13 @@
         <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -3476,30 +3487,30 @@
         <v>35</v>
       </c>
       <c r="S24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="T24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
@@ -3514,13 +3525,13 @@
         <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -3544,30 +3555,30 @@
         <v>35</v>
       </c>
       <c r="S25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="T25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -3582,19 +3593,19 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N26">
         <v>1178.8900000000001</v>
@@ -3603,7 +3614,7 @@
         <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -3612,30 +3623,30 @@
         <v>35</v>
       </c>
       <c r="S26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="T26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="U26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -3650,19 +3661,19 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N27">
         <v>1178.8900000000001</v>
@@ -3671,7 +3682,7 @@
         <v>34</v>
       </c>
       <c r="P27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -3680,30 +3691,30 @@
         <v>35</v>
       </c>
       <c r="S27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="T27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -3718,19 +3729,19 @@
         <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N28">
         <v>1178.8900000000001</v>
@@ -3739,7 +3750,7 @@
         <v>34</v>
       </c>
       <c r="P28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q28">
         <v>90</v>
@@ -3748,30 +3759,30 @@
         <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="T28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="U28" t="s">
         <v>38</v>
       </c>
       <c r="V28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -3786,19 +3797,19 @@
         <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N29">
         <v>1178.8900000000001</v>
@@ -3807,7 +3818,7 @@
         <v>34</v>
       </c>
       <c r="P29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q29">
         <v>140</v>
@@ -3816,30 +3827,30 @@
         <v>35</v>
       </c>
       <c r="S29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="T29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="U29" t="s">
         <v>38</v>
       </c>
       <c r="V29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -3854,19 +3865,19 @@
         <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N30">
         <v>1178.8900000000001</v>
@@ -3875,7 +3886,7 @@
         <v>34</v>
       </c>
       <c r="P30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q30">
         <v>140</v>
@@ -3884,30 +3895,30 @@
         <v>35</v>
       </c>
       <c r="S30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="T30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -3922,19 +3933,19 @@
         <v>83</v>
       </c>
       <c r="I31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N31">
         <v>1178.8900000000001</v>
@@ -3943,7 +3954,7 @@
         <v>34</v>
       </c>
       <c r="P31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q31">
         <v>75</v>
@@ -3952,30 +3963,30 @@
         <v>35</v>
       </c>
       <c r="S31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="T31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="U31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="V31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
@@ -3990,19 +4001,19 @@
         <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N32">
         <v>1178.8900000000001</v>
@@ -4011,7 +4022,7 @@
         <v>34</v>
       </c>
       <c r="P32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q32">
         <v>50</v>
@@ -4020,30 +4031,30 @@
         <v>35</v>
       </c>
       <c r="S32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T32" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="U32" t="s">
         <v>38</v>
       </c>
       <c r="V32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -4058,19 +4069,19 @@
         <v>82</v>
       </c>
       <c r="I33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L33" t="s">
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N33">
         <v>1178.8900000000001</v>
@@ -4079,7 +4090,7 @@
         <v>34</v>
       </c>
       <c r="P33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q33">
         <v>110</v>
@@ -4088,36 +4099,36 @@
         <v>35</v>
       </c>
       <c r="S33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="T33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="U33" t="s">
         <v>38</v>
       </c>
       <c r="V33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
@@ -4126,19 +4137,19 @@
         <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s">
         <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N34">
         <v>2365.69</v>
@@ -4147,7 +4158,7 @@
         <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -4156,36 +4167,36 @@
         <v>35</v>
       </c>
       <c r="S34" t="s">
+        <v>175</v>
+      </c>
+      <c r="T34" t="s">
+        <v>176</v>
+      </c>
+      <c r="U34" t="s">
         <v>172</v>
       </c>
-      <c r="T34" t="s">
-        <v>173</v>
-      </c>
-      <c r="U34" t="s">
-        <v>169</v>
-      </c>
       <c r="V34" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
@@ -4197,16 +4208,16 @@
         <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L35" t="s">
         <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N35">
         <v>2998.65</v>
@@ -4224,36 +4235,36 @@
         <v>35</v>
       </c>
       <c r="S35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="U35" t="s">
         <v>43</v>
       </c>
       <c r="V35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
         <v>28</v>
@@ -4265,16 +4276,16 @@
         <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N36">
         <v>2998.65</v>
@@ -4292,36 +4303,36 @@
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="U36" t="s">
         <v>43</v>
       </c>
       <c r="V36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s">
         <v>28</v>
@@ -4333,16 +4344,16 @@
         <v>43</v>
       </c>
       <c r="J37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N37">
         <v>2998.65</v>
@@ -4360,36 +4371,36 @@
         <v>35</v>
       </c>
       <c r="S37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="U37" t="s">
         <v>43</v>
       </c>
       <c r="V37" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
@@ -4401,16 +4412,16 @@
         <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L38" t="s">
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N38">
         <v>2998.65</v>
@@ -4428,36 +4439,36 @@
         <v>35</v>
       </c>
       <c r="S38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="U38" t="s">
         <v>43</v>
       </c>
       <c r="V38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s">
         <v>28</v>
@@ -4469,16 +4480,16 @@
         <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L39" t="s">
         <v>32</v>
       </c>
       <c r="M39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N39">
         <v>2998.65</v>
@@ -4496,36 +4507,36 @@
         <v>35</v>
       </c>
       <c r="S39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="U39" t="s">
         <v>43</v>
       </c>
       <c r="V39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s">
         <v>28</v>
@@ -4534,19 +4545,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K40" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L40" t="s">
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N40">
         <v>1811.85</v>
@@ -4564,36 +4575,36 @@
         <v>35</v>
       </c>
       <c r="S40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V40" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
         <v>28</v>
@@ -4602,19 +4613,19 @@
         <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J41" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s">
         <v>32</v>
       </c>
       <c r="M41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N41">
         <v>1811.85</v>
@@ -4632,36 +4643,36 @@
         <v>35</v>
       </c>
       <c r="S41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
@@ -4670,19 +4681,19 @@
         <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K42" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s">
         <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N42">
         <v>1811.85</v>
@@ -4700,36 +4711,36 @@
         <v>35</v>
       </c>
       <c r="S42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
         <v>28</v>
@@ -4738,19 +4749,19 @@
         <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s">
         <v>32</v>
       </c>
       <c r="M43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N43">
         <v>1811.85</v>
@@ -4768,36 +4779,36 @@
         <v>35</v>
       </c>
       <c r="S43" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T43" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
         <v>28</v>
@@ -4806,19 +4817,19 @@
         <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J44" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K44" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N44">
         <v>1811.85</v>
@@ -4836,36 +4847,36 @@
         <v>35</v>
       </c>
       <c r="S44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T44" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U44" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V44" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s">
         <v>28</v>
@@ -4874,19 +4885,19 @@
         <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L45" t="s">
         <v>32</v>
       </c>
       <c r="M45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N45">
         <v>1811.85</v>
@@ -4904,36 +4915,36 @@
         <v>35</v>
       </c>
       <c r="S45" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V45" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
         <v>28</v>
@@ -4942,19 +4953,19 @@
         <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J46" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K46" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L46" t="s">
         <v>32</v>
       </c>
       <c r="M46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N46">
         <v>1811.85</v>
@@ -4972,36 +4983,36 @@
         <v>35</v>
       </c>
       <c r="S46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T46" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V46" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
         <v>28</v>
@@ -5010,19 +5021,19 @@
         <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L47" t="s">
         <v>32</v>
       </c>
       <c r="M47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N47">
         <v>1811.85</v>
@@ -5040,36 +5051,36 @@
         <v>35</v>
       </c>
       <c r="S47" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T47" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V47" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
@@ -5078,19 +5089,19 @@
         <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J48" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K48" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L48" t="s">
         <v>32</v>
       </c>
       <c r="M48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N48">
         <v>1811.85</v>
@@ -5108,36 +5119,36 @@
         <v>35</v>
       </c>
       <c r="S48" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T48" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U48" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
         <v>28</v>
@@ -5146,19 +5157,19 @@
         <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s">
         <v>32</v>
       </c>
       <c r="M49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N49">
         <v>1811.85</v>
@@ -5176,36 +5187,36 @@
         <v>35</v>
       </c>
       <c r="S49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
         <v>28</v>
@@ -5214,19 +5225,19 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J50" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K50" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
       </c>
       <c r="M50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N50">
         <v>4509.84</v>
@@ -5244,36 +5255,36 @@
         <v>35</v>
       </c>
       <c r="S50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="T50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V50" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
         <v>28</v>
@@ -5282,19 +5293,19 @@
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J51" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K51" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s">
         <v>32</v>
       </c>
       <c r="M51" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N51">
         <v>4509.84</v>
@@ -5312,36 +5323,36 @@
         <v>35</v>
       </c>
       <c r="S51" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="T51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V51" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
         <v>28</v>
@@ -5350,19 +5361,19 @@
         <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J52" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K52" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L52" t="s">
         <v>32</v>
       </c>
       <c r="M52" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N52">
         <v>4509.84</v>
@@ -5380,36 +5391,36 @@
         <v>35</v>
       </c>
       <c r="S52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="T52" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V52" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
         <v>28</v>
@@ -5418,19 +5429,19 @@
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J53" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L53" t="s">
         <v>32</v>
       </c>
       <c r="M53" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N53">
         <v>4509.84</v>
@@ -5448,30 +5459,30 @@
         <v>35</v>
       </c>
       <c r="S53" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="T53" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U53" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V53" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
@@ -5486,19 +5497,19 @@
         <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J54" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L54" t="s">
         <v>32</v>
       </c>
       <c r="M54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N54">
         <v>1178.8900000000001</v>
@@ -5507,7 +5518,7 @@
         <v>34</v>
       </c>
       <c r="P54" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q54">
         <v>130</v>
@@ -5516,30 +5527,30 @@
         <v>35</v>
       </c>
       <c r="S54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="T54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="U54" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="V54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
@@ -5554,19 +5565,19 @@
         <v>37</v>
       </c>
       <c r="I55" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L55" t="s">
         <v>32</v>
       </c>
       <c r="M55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N55">
         <v>1178.8900000000001</v>
@@ -5575,7 +5586,7 @@
         <v>34</v>
       </c>
       <c r="P55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q55">
         <v>90</v>
@@ -5584,30 +5595,30 @@
         <v>35</v>
       </c>
       <c r="S55" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T55" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="U55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
@@ -5622,19 +5633,19 @@
         <v>57</v>
       </c>
       <c r="I56" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L56" t="s">
         <v>32</v>
       </c>
       <c r="M56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N56">
         <v>1178.8900000000001</v>
@@ -5643,7 +5654,7 @@
         <v>34</v>
       </c>
       <c r="P56" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q56">
         <v>74</v>
@@ -5652,30 +5663,30 @@
         <v>35</v>
       </c>
       <c r="S56" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="T56" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="U56" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
@@ -5690,19 +5701,19 @@
         <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J57" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L57" t="s">
         <v>32</v>
       </c>
       <c r="M57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N57">
         <v>1178.8900000000001</v>
@@ -5711,7 +5722,7 @@
         <v>34</v>
       </c>
       <c r="P57" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q57">
         <v>130</v>
@@ -5720,36 +5731,36 @@
         <v>35</v>
       </c>
       <c r="S57" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="T57" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="U57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V57" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
         <v>28</v>
@@ -5758,19 +5769,19 @@
         <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
       </c>
       <c r="M58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N58">
         <v>1811.85</v>
@@ -5788,30 +5799,30 @@
         <v>35</v>
       </c>
       <c r="S58" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T58" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U58" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V58" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
@@ -5826,19 +5837,19 @@
         <v>55</v>
       </c>
       <c r="I59" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J59" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K59" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L59" t="s">
         <v>32</v>
       </c>
       <c r="M59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N59">
         <v>1178.8900000000001</v>
@@ -5856,30 +5867,30 @@
         <v>35</v>
       </c>
       <c r="S59" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T59" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="U59" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="V59" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
@@ -5894,19 +5905,19 @@
         <v>55</v>
       </c>
       <c r="I60" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J60" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
       </c>
       <c r="M60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N60">
         <v>1178.8900000000001</v>
@@ -5924,30 +5935,30 @@
         <v>35</v>
       </c>
       <c r="S60" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T60" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="U60" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="V60" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C61" t="s">
         <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
@@ -5962,19 +5973,19 @@
         <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L61" t="s">
         <v>32</v>
       </c>
       <c r="M61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N61">
         <v>1178.8900000000001</v>
@@ -5992,30 +6003,30 @@
         <v>35</v>
       </c>
       <c r="S61" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T61" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="U61" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="V61" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
@@ -6030,19 +6041,19 @@
         <v>55</v>
       </c>
       <c r="I62" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J62" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L62" t="s">
         <v>32</v>
       </c>
       <c r="M62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N62">
         <v>1178.8900000000001</v>
@@ -6060,30 +6071,30 @@
         <v>35</v>
       </c>
       <c r="S62" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T62" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="U62" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="V62" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
@@ -6098,19 +6109,19 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J63" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L63" t="s">
         <v>32</v>
       </c>
       <c r="M63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N63">
         <v>1178.8900000000001</v>
@@ -6128,30 +6139,30 @@
         <v>35</v>
       </c>
       <c r="S63" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="T63" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="U63" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V63" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
@@ -6166,19 +6177,19 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L64" t="s">
         <v>32</v>
       </c>
       <c r="M64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N64">
         <v>1178.8900000000001</v>
@@ -6196,30 +6207,30 @@
         <v>35</v>
       </c>
       <c r="S64" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="T64" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="U64" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V64" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C65" t="s">
         <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
@@ -6234,19 +6245,19 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J65" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L65" t="s">
         <v>32</v>
       </c>
       <c r="M65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N65">
         <v>1178.8900000000001</v>
@@ -6264,30 +6275,30 @@
         <v>35</v>
       </c>
       <c r="S65" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="T65" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="U65" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V65" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C66" t="s">
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
@@ -6302,19 +6313,19 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K66" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L66" t="s">
         <v>32</v>
       </c>
       <c r="M66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N66">
         <v>1178.8900000000001</v>
@@ -6332,30 +6343,30 @@
         <v>35</v>
       </c>
       <c r="S66" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="T66" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="U66" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V66" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
@@ -6370,19 +6381,19 @@
         <v>31</v>
       </c>
       <c r="I67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K67" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L67" t="s">
         <v>32</v>
       </c>
       <c r="M67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N67">
         <v>1178.8900000000001</v>
@@ -6391,7 +6402,7 @@
         <v>34</v>
       </c>
       <c r="P67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -6400,30 +6411,30 @@
         <v>35</v>
       </c>
       <c r="S67" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="T67" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="U67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V67" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
         <v>26</v>
@@ -6438,19 +6449,19 @@
         <v>75</v>
       </c>
       <c r="I68" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J68" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L68" t="s">
         <v>32</v>
       </c>
       <c r="M68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N68">
         <v>1178.8900000000001</v>
@@ -6459,7 +6470,7 @@
         <v>34</v>
       </c>
       <c r="P68" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -6468,30 +6479,30 @@
         <v>35</v>
       </c>
       <c r="S68" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="T68" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="U68" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
@@ -6506,19 +6517,19 @@
         <v>8</v>
       </c>
       <c r="I69" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L69" t="s">
         <v>32</v>
       </c>
       <c r="M69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N69">
         <v>1178.8900000000001</v>
@@ -6527,7 +6538,7 @@
         <v>34</v>
       </c>
       <c r="P69" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -6536,30 +6547,30 @@
         <v>35</v>
       </c>
       <c r="S69" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="T69" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="U69" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V69" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
@@ -6574,19 +6585,19 @@
         <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J70" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L70" t="s">
         <v>32</v>
       </c>
       <c r="M70" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N70">
         <v>1178.8900000000001</v>
@@ -6595,7 +6606,7 @@
         <v>34</v>
       </c>
       <c r="P70" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q70">
         <v>12</v>
@@ -6604,30 +6615,30 @@
         <v>35</v>
       </c>
       <c r="S70" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="T70" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="U70" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V70" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
@@ -6642,19 +6653,19 @@
         <v>28</v>
       </c>
       <c r="I71" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J71" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L71" t="s">
         <v>32</v>
       </c>
       <c r="M71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N71">
         <v>1178.8900000000001</v>
@@ -6663,7 +6674,7 @@
         <v>34</v>
       </c>
       <c r="P71" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q71">
         <v>105</v>
@@ -6672,30 +6683,30 @@
         <v>35</v>
       </c>
       <c r="S71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="T71" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="U71" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="V71" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
         <v>26</v>
@@ -6710,19 +6721,19 @@
         <v>84</v>
       </c>
       <c r="I72" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J72" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K72" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L72" t="s">
         <v>32</v>
       </c>
       <c r="M72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N72">
         <v>1178.8900000000001</v>
@@ -6731,7 +6742,7 @@
         <v>34</v>
       </c>
       <c r="P72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q72">
         <v>55</v>
@@ -6740,30 +6751,30 @@
         <v>35</v>
       </c>
       <c r="S72" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="T72" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="U72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V72" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E73" t="s">
         <v>26</v>
@@ -6778,19 +6789,19 @@
         <v>65</v>
       </c>
       <c r="I73" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J73" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L73" t="s">
         <v>32</v>
       </c>
       <c r="M73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N73">
         <v>1178.8900000000001</v>
@@ -6799,7 +6810,7 @@
         <v>34</v>
       </c>
       <c r="P73" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q73">
         <v>20</v>
@@ -6808,30 +6819,30 @@
         <v>35</v>
       </c>
       <c r="S73" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T73" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="U73" t="s">
         <v>43</v>
       </c>
       <c r="V73" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
@@ -6846,19 +6857,19 @@
         <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L74" t="s">
         <v>32</v>
       </c>
       <c r="M74" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N74">
         <v>1178.8900000000001</v>
@@ -6867,7 +6878,7 @@
         <v>34</v>
       </c>
       <c r="P74" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q74">
         <v>65</v>
@@ -6876,30 +6887,30 @@
         <v>35</v>
       </c>
       <c r="S74" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="T74" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="V74" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
@@ -6914,19 +6925,19 @@
         <v>5</v>
       </c>
       <c r="I75" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J75" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L75" t="s">
         <v>32</v>
       </c>
       <c r="M75" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N75">
         <v>1178.8900000000001</v>
@@ -6935,7 +6946,7 @@
         <v>34</v>
       </c>
       <c r="P75" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q75">
         <v>20</v>
@@ -6944,30 +6955,30 @@
         <v>35</v>
       </c>
       <c r="S75" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="T75" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V75" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B76" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
@@ -6982,19 +6993,19 @@
         <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J76" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L76" t="s">
         <v>32</v>
       </c>
       <c r="M76" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N76">
         <v>1178.8900000000001</v>
@@ -7003,7 +7014,7 @@
         <v>34</v>
       </c>
       <c r="P76" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q76">
         <v>50</v>
@@ -7012,30 +7023,30 @@
         <v>35</v>
       </c>
       <c r="S76" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="T76" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V76" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
@@ -7050,19 +7061,17 @@
         <v>68</v>
       </c>
       <c r="I77" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J77" t="s">
-        <v>82</v>
-      </c>
-      <c r="K77" t="s">
-        <v>31</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="K77"/>
       <c r="L77" t="s">
         <v>32</v>
       </c>
       <c r="M77" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N77">
         <v>1178.8900000000001</v>
@@ -7071,7 +7080,7 @@
         <v>34</v>
       </c>
       <c r="P77" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q77">
         <v>25</v>
@@ -7080,30 +7089,30 @@
         <v>35</v>
       </c>
       <c r="S77" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="T77" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="U77" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="V77" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
@@ -7121,16 +7130,16 @@
         <v>43</v>
       </c>
       <c r="J78" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K78" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L78" t="s">
         <v>32</v>
       </c>
       <c r="M78" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N78">
         <v>2128.33</v>
@@ -7148,30 +7157,30 @@
         <v>35</v>
       </c>
       <c r="S78" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="T78" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="U78" t="s">
         <v>43</v>
       </c>
       <c r="V78" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
@@ -7189,16 +7198,16 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K79" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L79" t="s">
         <v>32</v>
       </c>
       <c r="M79" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N79">
         <v>2128.33</v>
@@ -7216,30 +7225,30 @@
         <v>35</v>
       </c>
       <c r="S79" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="T79" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="U79" t="s">
         <v>43</v>
       </c>
       <c r="V79" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
@@ -7257,16 +7266,16 @@
         <v>43</v>
       </c>
       <c r="J80" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K80" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L80" t="s">
         <v>32</v>
       </c>
       <c r="M80" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N80">
         <v>2128.33</v>
@@ -7284,36 +7293,36 @@
         <v>35</v>
       </c>
       <c r="S80" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="T80" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="U80" t="s">
         <v>43</v>
       </c>
       <c r="V80" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B81" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
         <v>28</v>
@@ -7322,19 +7331,19 @@
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J81" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K81" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L81" t="s">
         <v>32</v>
       </c>
       <c r="M81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N81">
         <v>2365.69</v>
@@ -7352,36 +7361,36 @@
         <v>35</v>
       </c>
       <c r="S81" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="T81" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="U81" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V81" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s">
         <v>28</v>
@@ -7390,19 +7399,19 @@
         <v>7</v>
       </c>
       <c r="I82" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J82" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K82" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L82" t="s">
         <v>32</v>
       </c>
       <c r="M82" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N82">
         <v>2365.69</v>
@@ -7420,36 +7429,36 @@
         <v>35</v>
       </c>
       <c r="S82" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="T82" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="U82" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V82" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B83" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s">
         <v>28</v>
@@ -7458,19 +7467,19 @@
         <v>7</v>
       </c>
       <c r="I83" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J83" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K83" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L83" t="s">
         <v>32</v>
       </c>
       <c r="M83" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N83">
         <v>2365.69</v>
@@ -7488,36 +7497,36 @@
         <v>35</v>
       </c>
       <c r="S83" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="T83" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="U83" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V83" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B84" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D84" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E84" t="s">
         <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s">
         <v>28</v>
@@ -7526,19 +7535,19 @@
         <v>7</v>
       </c>
       <c r="I84" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K84" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L84" t="s">
         <v>32</v>
       </c>
       <c r="M84" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N84">
         <v>2365.69</v>
@@ -7556,36 +7565,36 @@
         <v>35</v>
       </c>
       <c r="S84" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="T84" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="U84" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V84" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s">
         <v>28</v>
@@ -7594,19 +7603,19 @@
         <v>7</v>
       </c>
       <c r="I85" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J85" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K85" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L85" t="s">
         <v>32</v>
       </c>
       <c r="M85" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N85">
         <v>2365.69</v>
@@ -7624,24 +7633,24 @@
         <v>35</v>
       </c>
       <c r="S85" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="T85" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="U85" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V85" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C86" t="s">
         <v>24</v>
@@ -7692,24 +7701,24 @@
         <v>35</v>
       </c>
       <c r="S86" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="T86" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="U86" t="s">
         <v>38</v>
       </c>
       <c r="V86" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s">
         <v>24</v>
@@ -7760,30 +7769,30 @@
         <v>35</v>
       </c>
       <c r="S87" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="T87" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="U87" t="s">
         <v>38</v>
       </c>
       <c r="V87" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
@@ -7798,19 +7807,19 @@
         <v>57</v>
       </c>
       <c r="I88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J88" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K88" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L88" t="s">
         <v>32</v>
       </c>
       <c r="M88" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N88">
         <v>1178.8900000000001</v>
@@ -7819,7 +7828,7 @@
         <v>34</v>
       </c>
       <c r="P88" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q88">
         <v>140</v>
@@ -7828,30 +7837,30 @@
         <v>35</v>
       </c>
       <c r="S88" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="T88" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="U88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V88" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B89" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
@@ -7866,19 +7875,19 @@
         <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L89" t="s">
         <v>32</v>
       </c>
       <c r="M89" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N89">
         <v>1178.8900000000001</v>
@@ -7887,7 +7896,7 @@
         <v>34</v>
       </c>
       <c r="P89" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q89">
         <v>130</v>
@@ -7896,30 +7905,30 @@
         <v>35</v>
       </c>
       <c r="S89" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="T89" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="U89" t="s">
         <v>38</v>
       </c>
       <c r="V89" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D90" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
@@ -7934,19 +7943,19 @@
         <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J90" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L90" t="s">
         <v>32</v>
       </c>
       <c r="M90" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N90">
         <v>1178.8900000000001</v>
@@ -7955,7 +7964,7 @@
         <v>34</v>
       </c>
       <c r="P90" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q90">
         <v>130</v>
@@ -7964,30 +7973,30 @@
         <v>35</v>
       </c>
       <c r="S90" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="T90" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="U90" t="s">
         <v>38</v>
       </c>
       <c r="V90" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
@@ -8002,19 +8011,19 @@
         <v>63</v>
       </c>
       <c r="I91" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J91" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K91" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L91" t="s">
         <v>32</v>
       </c>
       <c r="M91" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N91">
         <v>4509.84</v>
@@ -8032,30 +8041,30 @@
         <v>35</v>
       </c>
       <c r="S91" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="T91" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="U91" t="s">
         <v>43</v>
       </c>
       <c r="V91" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B92" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D92" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
@@ -8070,19 +8079,19 @@
         <v>63</v>
       </c>
       <c r="I92" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J92" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K92" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L92" t="s">
         <v>32</v>
       </c>
       <c r="M92" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N92">
         <v>4509.84</v>
@@ -8100,30 +8109,30 @@
         <v>35</v>
       </c>
       <c r="S92" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="T92" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="U92" t="s">
         <v>43</v>
       </c>
       <c r="V92" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B93" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
@@ -8138,19 +8147,19 @@
         <v>28</v>
       </c>
       <c r="I93" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J93" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L93" t="s">
         <v>32</v>
       </c>
       <c r="M93" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N93">
         <v>1178.8900000000001</v>
@@ -8159,7 +8168,7 @@
         <v>34</v>
       </c>
       <c r="P93" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q93">
         <v>130</v>
@@ -8168,30 +8177,30 @@
         <v>35</v>
       </c>
       <c r="S93" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="T93" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="U93" t="s">
         <v>38</v>
       </c>
       <c r="V93" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D94" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
@@ -8206,19 +8215,19 @@
         <v>87</v>
       </c>
       <c r="I94" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J94" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L94" t="s">
         <v>32</v>
       </c>
       <c r="M94" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N94">
         <v>1178.8900000000001</v>
@@ -8227,7 +8236,7 @@
         <v>34</v>
       </c>
       <c r="P94" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q94">
         <v>100</v>
@@ -8236,30 +8245,30 @@
         <v>35</v>
       </c>
       <c r="S94" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="T94" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="U94" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="V94" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C95" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D95" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
@@ -8274,19 +8283,19 @@
         <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J95" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L95" t="s">
         <v>32</v>
       </c>
       <c r="M95" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N95">
         <v>1178.8900000000001</v>
@@ -8295,7 +8304,7 @@
         <v>34</v>
       </c>
       <c r="P95" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q95">
         <v>100</v>
@@ -8304,30 +8313,30 @@
         <v>35</v>
       </c>
       <c r="S95" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="T95" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="U95" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V95" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B96" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D96" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
@@ -8345,16 +8354,16 @@
         <v>38</v>
       </c>
       <c r="J96" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K96" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L96" t="s">
         <v>32</v>
       </c>
       <c r="M96" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N96">
         <v>1178.8900000000001</v>
@@ -8363,7 +8372,7 @@
         <v>34</v>
       </c>
       <c r="P96" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q96">
         <v>70</v>
@@ -8372,30 +8381,30 @@
         <v>35</v>
       </c>
       <c r="S96" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="T96" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="U96" t="s">
         <v>38</v>
       </c>
       <c r="V96" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B97" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
@@ -8410,19 +8419,19 @@
         <v>53</v>
       </c>
       <c r="I97" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J97" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K97" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L97" t="s">
         <v>32</v>
       </c>
       <c r="M97" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N97">
         <v>1178.8900000000001</v>
@@ -8431,7 +8440,7 @@
         <v>34</v>
       </c>
       <c r="P97" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q97">
         <v>100</v>
@@ -8440,30 +8449,30 @@
         <v>35</v>
       </c>
       <c r="S97" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="T97" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="U97" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V97" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C98" t="s">
         <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E98" t="s">
         <v>26</v>
@@ -8481,16 +8490,16 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K98" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L98" t="s">
         <v>32</v>
       </c>
       <c r="M98" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N98">
         <v>1178.8900000000001</v>
@@ -8508,30 +8517,30 @@
         <v>35</v>
       </c>
       <c r="S98" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="T98" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="U98" t="s">
         <v>43</v>
       </c>
       <c r="V98" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B99" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C99" t="s">
         <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
@@ -8549,16 +8558,16 @@
         <v>43</v>
       </c>
       <c r="J99" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K99" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L99" t="s">
         <v>32</v>
       </c>
       <c r="M99" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N99">
         <v>1178.8900000000001</v>
@@ -8576,24 +8585,24 @@
         <v>35</v>
       </c>
       <c r="S99" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="T99" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="U99" t="s">
         <v>43</v>
       </c>
       <c r="V99" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B100" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C100" t="s">
         <v>24</v>
@@ -8614,19 +8623,19 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J100" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K100" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L100" t="s">
         <v>32</v>
       </c>
       <c r="M100" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N100">
         <v>1020.65</v>
@@ -8644,24 +8653,24 @@
         <v>35</v>
       </c>
       <c r="S100" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="T100" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="U100" t="s">
         <v>38</v>
       </c>
       <c r="V100" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B101" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C101" t="s">
         <v>24</v>
@@ -8682,19 +8691,19 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J101" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K101" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L101" t="s">
         <v>32</v>
       </c>
       <c r="M101" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N101">
         <v>1020.65</v>
@@ -8712,24 +8721,24 @@
         <v>35</v>
       </c>
       <c r="S101" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="T101" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="U101" t="s">
         <v>38</v>
       </c>
       <c r="V101" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B102" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
@@ -8750,19 +8759,19 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J102" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K102" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L102" t="s">
         <v>32</v>
       </c>
       <c r="M102" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N102">
         <v>1020.65</v>
@@ -8780,24 +8789,24 @@
         <v>35</v>
       </c>
       <c r="S102" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="T102" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="U102" t="s">
         <v>38</v>
       </c>
       <c r="V102" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B103" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C103" t="s">
         <v>24</v>
@@ -8818,19 +8827,19 @@
         <v>32</v>
       </c>
       <c r="I103" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J103" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K103" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L103" t="s">
         <v>32</v>
       </c>
       <c r="M103" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N103">
         <v>1020.65</v>
@@ -8848,24 +8857,24 @@
         <v>35</v>
       </c>
       <c r="S103" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="T103" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="U103" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V103" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B104" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
@@ -8886,19 +8895,19 @@
         <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J104" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K104" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L104" t="s">
         <v>32</v>
       </c>
       <c r="M104" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N104">
         <v>1020.65</v>
@@ -8916,24 +8925,24 @@
         <v>35</v>
       </c>
       <c r="S104" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="T104" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="U104" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V104" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B105" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
@@ -8945,7 +8954,7 @@
         <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G105" t="s">
         <v>28</v>
@@ -8957,16 +8966,16 @@
         <v>38</v>
       </c>
       <c r="J105" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K105" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L105" t="s">
         <v>32</v>
       </c>
       <c r="M105" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N105">
         <v>1020.65</v>
@@ -8984,24 +8993,24 @@
         <v>35</v>
       </c>
       <c r="S105" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="T105" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="U105" t="s">
         <v>38</v>
       </c>
       <c r="V105" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B106" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
@@ -9022,19 +9031,19 @@
         <v>55</v>
       </c>
       <c r="I106" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J106" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K106" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L106" t="s">
         <v>32</v>
       </c>
       <c r="M106" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N106">
         <v>1020.65</v>
@@ -9052,24 +9061,24 @@
         <v>35</v>
       </c>
       <c r="S106" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="T106" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="U106" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V106" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
@@ -9090,19 +9099,19 @@
         <v>55</v>
       </c>
       <c r="I107" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J107" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K107" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L107" t="s">
         <v>32</v>
       </c>
       <c r="M107" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N107">
         <v>1020.65</v>
@@ -9120,36 +9129,36 @@
         <v>35</v>
       </c>
       <c r="S107" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="T107" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="U107" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V107" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B108" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E108" t="s">
         <v>26</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s">
         <v>28</v>
@@ -9161,16 +9170,16 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K108" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L108" t="s">
         <v>32</v>
       </c>
       <c r="M108" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N108">
         <v>2128.33</v>
@@ -9188,36 +9197,36 @@
         <v>35</v>
       </c>
       <c r="S108" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="T108" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U108" t="s">
         <v>43</v>
       </c>
       <c r="V108" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B109" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C109" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E109" t="s">
         <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G109" t="s">
         <v>28</v>
@@ -9229,16 +9238,16 @@
         <v>43</v>
       </c>
       <c r="J109" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K109" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L109" t="s">
         <v>32</v>
       </c>
       <c r="M109" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N109">
         <v>2128.33</v>
@@ -9256,36 +9265,36 @@
         <v>35</v>
       </c>
       <c r="S109" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="T109" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U109" t="s">
         <v>43</v>
       </c>
       <c r="V109" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B110" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C110" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E110" t="s">
         <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G110" t="s">
         <v>28</v>
@@ -9297,16 +9306,16 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K110" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L110" t="s">
         <v>32</v>
       </c>
       <c r="M110" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N110">
         <v>2128.33</v>
@@ -9324,36 +9333,36 @@
         <v>35</v>
       </c>
       <c r="S110" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="T110" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="U110" t="s">
         <v>43</v>
       </c>
       <c r="V110" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C111" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E111" t="s">
         <v>26</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G111" t="s">
         <v>28</v>
@@ -9362,19 +9371,19 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J111" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K111" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L111" t="s">
         <v>32</v>
       </c>
       <c r="M111" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N111">
         <v>2128.33</v>
@@ -9392,36 +9401,36 @@
         <v>35</v>
       </c>
       <c r="S111" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="T111" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="U111" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V111" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B112" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C112" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E112" t="s">
         <v>26</v>
       </c>
       <c r="F112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G112" t="s">
         <v>28</v>
@@ -9430,19 +9439,19 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J112" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K112" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L112" t="s">
         <v>32</v>
       </c>
       <c r="M112" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N112">
         <v>2128.33</v>
@@ -9460,36 +9469,36 @@
         <v>35</v>
       </c>
       <c r="S112" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="T112" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="U112" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V112" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B113" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E113" t="s">
         <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G113" t="s">
         <v>28</v>
@@ -9498,19 +9507,19 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J113" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K113" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L113" t="s">
         <v>32</v>
       </c>
       <c r="M113" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N113">
         <v>2128.33</v>
@@ -9528,36 +9537,36 @@
         <v>35</v>
       </c>
       <c r="S113" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="T113" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="U113" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="V113" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B114" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E114" t="s">
         <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G114" t="s">
         <v>28</v>
@@ -9569,16 +9578,16 @@
         <v>38</v>
       </c>
       <c r="J114" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K114" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L114" t="s">
         <v>32</v>
       </c>
       <c r="M114" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N114">
         <v>2128.33</v>
@@ -9596,36 +9605,36 @@
         <v>35</v>
       </c>
       <c r="S114" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="T114" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="U114" t="s">
         <v>38</v>
       </c>
       <c r="V114" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B115" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C115" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D115" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E115" t="s">
         <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G115" t="s">
         <v>28</v>
@@ -9637,16 +9646,16 @@
         <v>38</v>
       </c>
       <c r="J115" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K115" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L115" t="s">
         <v>32</v>
       </c>
       <c r="M115" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N115">
         <v>2128.33</v>
@@ -9664,36 +9673,36 @@
         <v>35</v>
       </c>
       <c r="S115" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="T115" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="U115" t="s">
         <v>38</v>
       </c>
       <c r="V115" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B116" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C116" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E116" t="s">
         <v>26</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G116" t="s">
         <v>28</v>
@@ -9702,19 +9711,19 @@
         <v>61</v>
       </c>
       <c r="I116" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J116" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K116" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L116" t="s">
         <v>32</v>
       </c>
       <c r="M116" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N116">
         <v>2128.33</v>
@@ -9732,36 +9741,36 @@
         <v>35</v>
       </c>
       <c r="S116" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="T116" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="U116" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V116" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C117" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E117" t="s">
         <v>26</v>
       </c>
       <c r="F117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G117" t="s">
         <v>28</v>
@@ -9770,19 +9779,19 @@
         <v>61</v>
       </c>
       <c r="I117" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J117" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K117" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L117" t="s">
         <v>32</v>
       </c>
       <c r="M117" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N117">
         <v>2128.33</v>
@@ -9800,36 +9809,36 @@
         <v>35</v>
       </c>
       <c r="S117" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="T117" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="U117" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V117" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B118" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C118" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D118" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E118" t="s">
         <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G118" t="s">
         <v>28</v>
@@ -9841,16 +9850,16 @@
         <v>38</v>
       </c>
       <c r="J118" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K118" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L118" t="s">
         <v>32</v>
       </c>
       <c r="M118" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N118">
         <v>1811.85</v>
@@ -9868,36 +9877,36 @@
         <v>35</v>
       </c>
       <c r="S118" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="T118" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="U118" t="s">
         <v>38</v>
       </c>
       <c r="V118" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B119" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C119" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D119" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E119" t="s">
         <v>26</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G119" t="s">
         <v>28</v>
@@ -9909,16 +9918,16 @@
         <v>38</v>
       </c>
       <c r="J119" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K119" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L119" t="s">
         <v>32</v>
       </c>
       <c r="M119" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N119">
         <v>1811.85</v>
@@ -9936,36 +9945,36 @@
         <v>35</v>
       </c>
       <c r="S119" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="T119" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="U119" t="s">
         <v>38</v>
       </c>
       <c r="V119" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B120" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C120" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D120" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E120" t="s">
         <v>26</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G120" t="s">
         <v>28</v>
@@ -9977,16 +9986,16 @@
         <v>38</v>
       </c>
       <c r="J120" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K120" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="L120" t="s">
         <v>32</v>
       </c>
       <c r="M120" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N120">
         <v>1811.85</v>
@@ -10004,36 +10013,36 @@
         <v>35</v>
       </c>
       <c r="S120" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="T120" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="U120" t="s">
         <v>38</v>
       </c>
       <c r="V120" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B121" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D121" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E121" t="s">
         <v>26</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G121" t="s">
         <v>28</v>
@@ -10042,19 +10051,19 @@
         <v>71</v>
       </c>
       <c r="I121" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J121" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K121" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L121" t="s">
         <v>32</v>
       </c>
       <c r="M121" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N121">
         <v>8624.08</v>
@@ -10072,36 +10081,36 @@
         <v>35</v>
       </c>
       <c r="S121" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="T121" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="U121" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V121" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B122" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D122" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E122" t="s">
         <v>26</v>
       </c>
       <c r="F122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G122" t="s">
         <v>28</v>
@@ -10110,19 +10119,19 @@
         <v>71</v>
       </c>
       <c r="I122" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J122" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K122" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L122" t="s">
         <v>32</v>
       </c>
       <c r="M122" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N122">
         <v>8624.08</v>
@@ -10140,36 +10149,36 @@
         <v>35</v>
       </c>
       <c r="S122" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="T122" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="U122" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V122" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B123" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C123" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D123" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E123" t="s">
         <v>26</v>
       </c>
       <c r="F123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G123" t="s">
         <v>28</v>
@@ -10178,19 +10187,19 @@
         <v>71</v>
       </c>
       <c r="I123" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J123" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K123" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L123" t="s">
         <v>32</v>
       </c>
       <c r="M123" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N123">
         <v>8624.08</v>
@@ -10208,36 +10217,36 @@
         <v>35</v>
       </c>
       <c r="S123" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="T123" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="U123" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V123" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B124" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C124" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D124" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E124" t="s">
         <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G124" t="s">
         <v>28</v>
@@ -10246,19 +10255,19 @@
         <v>71</v>
       </c>
       <c r="I124" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J124" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K124" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L124" t="s">
         <v>32</v>
       </c>
       <c r="M124" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N124">
         <v>8624.08</v>
@@ -10276,36 +10285,36 @@
         <v>35</v>
       </c>
       <c r="S124" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="T124" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="U124" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V124" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B125" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C125" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D125" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E125" t="s">
         <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
         <v>28</v>
@@ -10314,19 +10323,19 @@
         <v>71</v>
       </c>
       <c r="I125" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J125" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K125" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L125" t="s">
         <v>32</v>
       </c>
       <c r="M125" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N125">
         <v>2682.17</v>
@@ -10344,36 +10353,36 @@
         <v>35</v>
       </c>
       <c r="S125" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="T125" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="U125" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V125" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B126" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C126" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D126" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E126" t="s">
         <v>26</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G126" t="s">
         <v>28</v>
@@ -10382,19 +10391,19 @@
         <v>71</v>
       </c>
       <c r="I126" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J126" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K126" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L126" t="s">
         <v>32</v>
       </c>
       <c r="M126" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N126">
         <v>2682.17</v>
@@ -10412,36 +10421,36 @@
         <v>35</v>
       </c>
       <c r="S126" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="T126" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="U126" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V126" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B127" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C127" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D127" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E127" t="s">
         <v>26</v>
       </c>
       <c r="F127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G127" t="s">
         <v>28</v>
@@ -10450,19 +10459,19 @@
         <v>71</v>
       </c>
       <c r="I127" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J127" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K127" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L127" t="s">
         <v>32</v>
       </c>
       <c r="M127" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N127">
         <v>2682.17</v>
@@ -10480,30 +10489,30 @@
         <v>35</v>
       </c>
       <c r="S127" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="T127" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="U127" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V127" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B128" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C128" t="s">
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E128" t="s">
         <v>26</v>
@@ -10518,19 +10527,19 @@
         <v>62</v>
       </c>
       <c r="I128" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J128" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K128" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L128" t="s">
         <v>32</v>
       </c>
       <c r="M128" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N128">
         <v>2128.33</v>
@@ -10539,7 +10548,7 @@
         <v>34</v>
       </c>
       <c r="P128" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q128">
         <v>10</v>
@@ -10548,16 +10557,16 @@
         <v>35</v>
       </c>
       <c r="S128" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="T128" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="U128" t="s">
         <v>43</v>
       </c>
       <c r="V128" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -10567,7 +10576,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="U1:U1048576" xr:uid="{9560FD54-5A71-4DD8-A2C9-E299BA26DC90}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="U1:U1048576" xr:uid="{E32E3E76-ABFC-40B2-BB68-F3DF4C4A24F8}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/Stetson/2022.02.08/25.02.2022 STETSON — загрузка.xlsx
+++ b/Excel/Stetson/2022.02.08/25.02.2022 STETSON — загрузка.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F449576E-64EE-4E11-B5BD-6C6493B26862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADCDCCE4-6024-45EF-B907-E2CE9424D238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6DB72AB-BE88-4F7B-87DE-F28F56C0E962}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D73BB07E-9F1B-4047-A9D4-95B874D44610}"/>
   </bookViews>
   <sheets>
     <sheet name="Загрузка" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>general</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2472006A-09B1-49F4-A621-19E15D75065D}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9C95A200-E00E-42A2-B4B9-B493FB1A063B}">
       <text>
         <r>
           <rPr>
@@ -1375,8 +1375,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1385,12 +1383,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1413,6 +1405,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1494,25 +1492,25 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 8" xfId="1" xr:uid="{9C01D06D-DBB6-4605-B753-030A728A4CAF}"/>
-    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{D0F56C11-843B-4426-AC9A-30E083471591}"/>
+    <cellStyle name="Обычный 8" xfId="1" xr:uid="{8BB29441-3136-426D-B2EB-D96EC234CF58}"/>
+    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{E17EFD7A-19D9-4B7D-885B-5827A49ADE5F}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1829,15 +1827,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E6CC40-2D13-4FA8-B6F3-8723394605F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A30F09-8866-40C2-94E8-60747B484370}">
   <sheetPr codeName="Лист28">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:V128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM121" sqref="AM121:AM127"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T122" sqref="T122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6485,7 +6483,7 @@
         <v>251</v>
       </c>
       <c r="U68" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="V68" t="s">
         <v>252</v>
@@ -6621,7 +6619,7 @@
         <v>262</v>
       </c>
       <c r="U70" t="s">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="V70" t="s">
         <v>263</v>
@@ -10087,7 +10085,7 @@
         <v>418</v>
       </c>
       <c r="U121" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="V121" t="s">
         <v>419</v>
@@ -10155,7 +10153,7 @@
         <v>418</v>
       </c>
       <c r="U122" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="V122" t="s">
         <v>419</v>
@@ -10223,7 +10221,7 @@
         <v>423</v>
       </c>
       <c r="U123" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="V123" t="s">
         <v>424</v>
@@ -10291,7 +10289,7 @@
         <v>423</v>
       </c>
       <c r="U124" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="V124" t="s">
         <v>424</v>
@@ -10359,7 +10357,7 @@
         <v>428</v>
       </c>
       <c r="U125" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="V125" t="s">
         <v>429</v>
@@ -10427,7 +10425,7 @@
         <v>428</v>
       </c>
       <c r="U126" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="V126" t="s">
         <v>429</v>
@@ -10495,7 +10493,7 @@
         <v>428</v>
       </c>
       <c r="U127" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="V127" t="s">
         <v>429</v>
@@ -10563,7 +10561,7 @@
         <v>433</v>
       </c>
       <c r="U128" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V128" t="s">
         <v>434</v>
@@ -10576,7 +10574,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="U1:U1048576" xr:uid="{E32E3E76-ABFC-40B2-BB68-F3DF4C4A24F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="U1:U1048576" xr:uid="{E61098B4-08A3-422C-94F7-1C4CE354523E}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
